--- a/biology/Zoologie/Dresserus_sericatus/Dresserus_sericatus.xlsx
+++ b/biology/Zoologie/Dresserus_sericatus/Dresserus_sericatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dresserus sericatus est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dresserus sericatus est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Namibie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Namibie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 11 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 11 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
